--- a/Data_science_outputs/1000pop/output_results/output_analysis_3.xlsx
+++ b/Data_science_outputs/1000pop/output_results/output_analysis_3.xlsx
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26313.51312239445</v>
+        <v>19460.04417134706</v>
       </c>
       <c r="C3" t="n">
         <v>15834.46691845245</v>
       </c>
       <c r="D3" t="n">
-        <v>7764.354347867683</v>
+        <v>905.1407206307279</v>
       </c>
       <c r="E3" t="n">
         <v>2660.204287225344</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9200.111962819319</v>
+        <v>8299.418386005162</v>
       </c>
       <c r="C4" t="n">
         <v>7752.501722934888</v>
       </c>
       <c r="D4" t="n">
-        <v>7119.090390662329</v>
+        <v>603.2118482439402</v>
       </c>
       <c r="E4" t="n">
         <v>1385.270999892437</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3158.037</v>
+        <v>2748.034000000001</v>
       </c>
       <c r="C5" t="n">
         <v>3327.02</v>
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18508.03600000001</v>
+        <v>13043.009</v>
       </c>
       <c r="C6" t="n">
         <v>9896.514250000002</v>
       </c>
       <c r="D6" t="n">
-        <v>206.005</v>
+        <v>205.001</v>
       </c>
       <c r="E6" t="n">
         <v>1661.015</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27705.041</v>
+        <v>17317.03250000001</v>
       </c>
       <c r="C7" t="n">
         <v>12952.79900000004</v>
       </c>
       <c r="D7" t="n">
-        <v>7400</v>
+        <v>1165</v>
       </c>
       <c r="E7" t="n">
         <v>2450.002</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33091.63125000006</v>
+        <v>26749.9910000001</v>
       </c>
       <c r="C8" t="n">
         <v>22387.72625000003</v>
       </c>
       <c r="D8" t="n">
-        <v>15365</v>
+        <v>1285</v>
       </c>
       <c r="E8" t="n">
         <v>3230.006</v>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>45827.80600000011</v>
+        <v>43289.39100000006</v>
       </c>
       <c r="C9" t="n">
         <v>35551.41100000007</v>
       </c>
       <c r="D9" t="n">
-        <v>15625</v>
+        <v>6614.002</v>
       </c>
       <c r="E9" t="n">
         <v>15130.006</v>
@@ -644,7 +644,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>13830382497.13302</v>
+        <v>10228199216.46202</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -662,7 +662,7 @@
         <v>159611426.5380003</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6038325028434458</v>
+        <v>0.8167863866874108</v>
       </c>
     </row>
     <row r="12">
@@ -676,10 +676,10 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>4080944645.242001</v>
+        <v>475741962.7639999</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2950709892577421</v>
+        <v>0.04651277831959957</v>
       </c>
     </row>
     <row r="13">
@@ -696,7 +696,7 @@
         <v>1398203373.365</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1010965078988121</v>
+        <v>0.1367008349929897</v>
       </c>
     </row>
   </sheetData>
